--- a/assets/datawarga.xlsx
+++ b/assets/datawarga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aris_PC\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\desa\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
   <si>
     <t>Nama</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>001/01</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -619,11 +625,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -633,6 +710,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,8 +1026,8 @@
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>163</v>
       </c>
@@ -951,20 +1043,23 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -983,17 +1078,20 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
+      <c r="G3" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1012,17 +1110,20 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+      <c r="G4" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1041,17 +1142,20 @@
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1070,17 +1174,20 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
+      <c r="G6" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1099,17 +1206,20 @@
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+      <c r="G7" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1128,17 +1238,20 @@
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
+      <c r="G8" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1157,17 +1270,20 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
+      <c r="G9" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1186,17 +1302,20 @@
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
+      <c r="G10" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1215,17 +1334,20 @@
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
+      <c r="G11" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1244,17 +1366,20 @@
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
+      <c r="G12" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1273,17 +1398,20 @@
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1302,17 +1430,20 @@
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1331,17 +1462,20 @@
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
+      <c r="G15" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1360,17 +1494,20 @@
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
+      <c r="G16" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1389,17 +1526,20 @@
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1418,17 +1558,20 @@
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1447,17 +1590,20 @@
       <c r="F19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
+      <c r="G19" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1476,17 +1622,20 @@
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
+      <c r="G20" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1505,17 +1654,20 @@
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
+      <c r="G21" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1534,17 +1686,20 @@
       <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
+      <c r="G22" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1563,17 +1718,20 @@
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
+      <c r="G23" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1592,17 +1750,20 @@
       <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
+      <c r="G24" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1621,17 +1782,20 @@
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1650,17 +1814,20 @@
       <c r="F26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1679,17 +1846,20 @@
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
+      <c r="G27" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1708,17 +1878,20 @@
       <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
+      <c r="G28" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1737,17 +1910,20 @@
       <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
+      <c r="G29" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1766,17 +1942,20 @@
       <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
+      <c r="G30" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1795,17 +1974,20 @@
       <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
+      <c r="G31" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1824,17 +2006,20 @@
       <c r="F32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
+      <c r="G32" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1853,17 +2038,20 @@
       <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
+      <c r="G33" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1882,17 +2070,20 @@
       <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
+      <c r="G34" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1911,17 +2102,20 @@
       <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
+      <c r="G35" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1940,17 +2134,20 @@
       <c r="F36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+      <c r="G36" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1969,17 +2166,20 @@
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
+      <c r="G37" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1998,17 +2198,20 @@
       <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
+      <c r="G38" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2027,17 +2230,20 @@
       <c r="F39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
+      <c r="G39" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2056,17 +2262,20 @@
       <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
+      <c r="G40" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2085,17 +2294,20 @@
       <c r="F41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+      <c r="G41" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2114,17 +2326,20 @@
       <c r="F42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
+      <c r="G42" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2143,17 +2358,20 @@
       <c r="F43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+      <c r="G43" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2172,17 +2390,20 @@
       <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
+      <c r="G44" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2201,17 +2422,20 @@
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
+      <c r="G45" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2230,17 +2454,20 @@
       <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
+      <c r="G46" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2259,17 +2486,20 @@
       <c r="F47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
+      <c r="G47" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2288,17 +2518,20 @@
       <c r="F48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
+      <c r="G48" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2317,17 +2550,20 @@
       <c r="F49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
+      <c r="G49" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2346,17 +2582,20 @@
       <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
+      <c r="G50" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2375,17 +2614,20 @@
       <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
+      <c r="G51" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="1">
-        <v>15610</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="1">
+        <v>15610</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2404,13 +2646,16 @@
       <c r="F52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+      <c r="G52" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="1">
         <v>15610</v>
       </c>
     </row>
